--- a/Metropolitan Roads/27814/CHK-007-STR-Bridge Beams-Material Inspection-Precast Beams Rev.0.xlsx
+++ b/Metropolitan Roads/27814/CHK-007-STR-Bridge Beams-Material Inspection-Precast Beams Rev.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decastroj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\27814\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045729F3-747D-4EBB-BE6E-CA5B0B551C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC55D8-5420-431C-A647-C1AC0EFE3B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="555" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$11:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$11:$K$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$11:$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>ConQA Team Notes:</t>
   </si>
@@ -147,105 +147,35 @@
     <t>PE/SE</t>
   </si>
   <si>
-    <t>Visual</t>
-  </si>
-  <si>
     <t>Do the contents of the delivery match the freight list/packaging slip?</t>
   </si>
   <si>
     <t xml:space="preserve">Each Delivery </t>
   </si>
   <si>
-    <t>Each Precast item</t>
-  </si>
-  <si>
     <t>Packaging Inspection-Quantity</t>
   </si>
   <si>
     <t>Packaging Inspection-Delivery Contents</t>
   </si>
   <si>
-    <t>Packaging Inspection-Birth Certificate</t>
-  </si>
-  <si>
-    <t>Is the delivery accompanied by Precast items Birth Certificates?
-Precast components are to be marked on the birth certificate.
-Cast date and lot are to be marked on the birth certificate.</t>
-  </si>
-  <si>
-    <t>Packaging Inspection-Transport</t>
-  </si>
-  <si>
-    <t>Is the condition of packaging acceptable. 
-Precast items are protected from damage during the transport</t>
-  </si>
-  <si>
     <t>Fault IDs:</t>
   </si>
   <si>
-    <t>Check for Faults - 1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Item 6 on this Checklist</t>
-  </si>
-  <si>
-    <t>For Each Precast type delivered:
-Enter: Panel Identificatio:[FREE TEXT BOX]:
-Enter:Quantity:[FREE TEXT BOX]:
-Enter:Fault ID if any:[FREE TEXT BOX]:</t>
-  </si>
-  <si>
     <t>Each precast type delivered</t>
   </si>
   <si>
-    <t>Check for Faults - 2</t>
-  </si>
-  <si>
-    <t>Check for Faults - 3</t>
-  </si>
-  <si>
-    <t>Check for Faults - 4</t>
-  </si>
-  <si>
-    <t>Check for Faults - 5</t>
-  </si>
-  <si>
     <t>Jon De Castro</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>Delivery Dockets/
 Packing List</t>
-  </si>
-  <si>
-    <t>Delivery Dockets/
-Packing List / Panel IDs</t>
   </si>
   <si>
     <t>Delivery Dockets/
@@ -265,43 +195,15 @@
     <t>Precast Beams Material Inspection</t>
   </si>
   <si>
-    <t>Check for Faults - 6</t>
-  </si>
-  <si>
-    <t>Check for Faults - 7</t>
-  </si>
-  <si>
-    <t>Check for Faults - 8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Item 1 on this Checklist</t>
-  </si>
-  <si>
-    <t>Item 2 on this Checklist</t>
-  </si>
-  <si>
-    <t>Item 3 on this Checklist</t>
-  </si>
-  <si>
-    <t>Item 4 on this Checklist</t>
-  </si>
-  <si>
-    <t>Item 5 on this Checklist</t>
-  </si>
-  <si>
-    <t>Item 7 on this Checklist</t>
-  </si>
-  <si>
-    <t>Item 8 on this Checklist</t>
+    <t>Document Review
+Visual
+Measure</t>
+  </si>
+  <si>
+    <t>CHK-007-STR-Bridge Beams-Material Inspection-Precast Beams</t>
+  </si>
+  <si>
+    <t>To be Available for Brunt Rd Project Only</t>
   </si>
   <si>
     <t>For each precast element delivered, check for the following:
@@ -312,18 +214,14 @@
 5-Exposed Reinforcement
 6-Damage to Anti-Graffiti coating (where applicable)
 7-Incorrect Lifting mechanism size/Orientation/Quantity as per lifting design
-8- Others</t>
-  </si>
-  <si>
-    <t>Document Review
-Visual
-Measure</t>
-  </si>
-  <si>
-    <t>CHK-007-STR-Bridge Beams-Material Inspection-Precast Beams</t>
-  </si>
-  <si>
-    <t>To be Available for Brunt Rd Project Only</t>
+8- Others
+For Each Precast type delivered:
+Enter: Panel Identificatio:[FREE TEXT BOX]:
+Enter:Quantity:[FREE TEXT BOX]:
+Enter:Fault ID if any:[FREE TEXT BOX]:</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -545,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,9 +452,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -581,9 +476,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -602,32 +494,32 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,10 +804,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,128 +821,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="25"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="24">
+      <c r="B5" s="8"/>
+      <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="26">
+      <c r="B6" s="8"/>
+      <c r="C6" s="29">
         <v>45243</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="25"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="25"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="25"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="27"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1060,25 +952,25 @@
       <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>64</v>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>29</v>
@@ -1093,476 +985,173 @@
         <v>30</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="A14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:19" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:19" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>4</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" ht="180" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K29"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K19"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A11:A12"/>
@@ -1573,13 +1162,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1592,6 +1174,110 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j3373299c44a42499a29e1915264a3b5>
+    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
+    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d0c3539471b44cfa8fe7a085a2c8a5d5>
+    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1532197b8344cb19adf5365ae4ff0ff>
+    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372393</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372393</Url>
+      <Description>MRPA-1160097302-372393</Description>
+    </_dlc_DocIdUrl>
+    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </me5b5cb8f12249249ca913346c48a983>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc33861001d04fbf92e96c5a2d70a7b6>
+    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A70E945F2728E4A865DDF9F320753FE" ma:contentTypeVersion="83" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="526eaf6633c300e3f197090e00c4b099">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2836469c-b43e-4aa1-9b97-2c3e7041e824" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="8aefd74c-d14b-451e-bb38-cf3a729b3efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff518e3a7c1b2aba83c707a810e8854b" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1999,111 +1685,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j3373299c44a42499a29e1915264a3b5>
-    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
-    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d0c3539471b44cfa8fe7a085a2c8a5d5>
-    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1532197b8344cb19adf5365ae4ff0ff>
-    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372393</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372393</Url>
-      <Description>MRPA-1160097302-372393</Description>
-    </_dlc_DocIdUrl>
-    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </me5b5cb8f12249249ca913346c48a983>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc33861001d04fbf92e96c5a2d70a7b6>
-    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C286BF22-C170-4303-AAF9-2151B0A8845C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2122,39 +1739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>